--- a/Final-readyforviz.xlsx
+++ b/Final-readyforviz.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\608619925\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\608619925\desktop\Misc Projects\NodeJs\d3\Concept-Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet5!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -14428,19 +14428,19 @@
         <v>13</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f t="shared" ref="C45:C108" si="6">A33</f>
+        <f t="shared" ref="C45:C54" si="6">A33</f>
         <v>isUnderStaffed</v>
       </c>
       <c r="D45" s="2" t="str">
-        <f t="shared" ref="D45:D108" si="7">A34</f>
+        <f t="shared" ref="D45:D54" si="7">A34</f>
         <v>ConductsFarmVisits</v>
       </c>
       <c r="E45" s="2" t="str">
-        <f t="shared" ref="E45:E108" si="8">A35</f>
+        <f t="shared" ref="E45:E54" si="8">A35</f>
         <v>requiresSameDayDelivery</v>
       </c>
       <c r="F45" s="2" t="str">
-        <f t="shared" ref="F45:F108" si="9">A36</f>
+        <f t="shared" ref="F45:F54" si="9">A36</f>
         <v>IsCulinarySchoolEducated</v>
       </c>
       <c r="H45">
@@ -15001,8 +15001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
